--- a/服务器一览.xlsx
+++ b/服务器一览.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MX-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="内服服务器列表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>中心服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,13 @@
   <si>
     <t>乡乐棋牌内服服务器列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳斗地主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.199.115.26</t>
   </si>
 </sst>
 </file>
@@ -270,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +287,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,54 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -658,77 +659,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="3">
         <v>50003</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="3">
         <v>50000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>11</v>
       </c>
       <c r="G6" s="1"/>
@@ -737,64 +738,64 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="4">
         <v>50010</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4">
         <v>50011</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="6">
         <v>10</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="6">
         <v>60110</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="6">
         <v>60111</v>
       </c>
     </row>
@@ -814,147 +815,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="32.875" customWidth="1"/>
     <col min="5" max="5" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="3">
         <v>31</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="3">
         <v>60031</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3">
         <v>60032</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4">
         <v>50010</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>50011</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>60110</v>
+      </c>
+      <c r="E11" s="6">
+        <v>60111</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/服务器一览.xlsx
+++ b/服务器一览.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="内服服务器列表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>中心服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>139.199.115.26</t>
+  </si>
+  <si>
+    <t>佳木斯麻将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -277,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +301,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -642,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,12 +669,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -681,7 +691,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -696,7 +706,7 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -708,7 +718,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -720,7 +730,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -738,7 +748,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -750,7 +760,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -762,7 +772,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -776,7 +786,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -788,7 +798,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
@@ -799,12 +809,51 @@
         <v>60111</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8">
+        <v>50020</v>
+      </c>
+      <c r="D14" s="8">
+        <v>50021</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -828,13 +877,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -854,10 +903,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -871,8 +920,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -884,8 +933,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -897,8 +946,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -912,8 +961,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
@@ -925,8 +974,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -938,8 +987,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -953,8 +1002,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
@@ -966,8 +1015,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
